--- a/src/main/resources/easypoi/out/easy_poi_export_test.xlsx
+++ b/src/main/resources/easypoi/out/easy_poi_export_test.xlsx
@@ -44,7 +44,7 @@
     <t>testTags</t>
   </si>
   <si>
-    <t>2020-11-04</t>
+    <t>2021-12-29</t>
   </si>
   <si>
     <t>testName1</t>
